--- a/Bug report.xlsx
+++ b/Bug report.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgarn\git\Examples-Test-case-Bug-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1AEB1E-A895-4167-B86A-0CE68DDC2F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Баг-репорт" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="242">
   <si>
     <t>1. Выбрать тип визы "Туристическая".
 2. Выбрать кратность "Однократная".
@@ -461,12 +463,394 @@
   <si>
     <t>Pre-condition</t>
   </si>
+  <si>
+    <t>In the data entry selection window, the number of guests is not selected the first time - 1 type of visa "Tourist".</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Tourist".
+2. Select the multiplicity "Single".
+3. Click in the block "Number of guests "1".
+4. In the "Ready" block, press the button 24 hours."</t>
+  </si>
+  <si>
+    <t>The button for selecting the number of guests 1, allows you to select a guest from the first time.</t>
+  </si>
+  <si>
+    <t>button for selecting the number of guests - 1 is marked from the second time.</t>
+  </si>
+  <si>
+    <t>Multiplicity "Multiple" visa type "Business" is not displayed.</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Business".
+2. Select the multiplicity "Multiple".
+3. Click in the block "Number of guests "1".
+4. In the "Readiness" block, press the button 22-24 days.
+5. In the "Time of stay" block, select - 180 days."</t>
+  </si>
+  <si>
+    <t>In the multiplicity, you can select "multiple".</t>
+  </si>
+  <si>
+    <t>There is no "Multiple" in the multiplicity drop-down list.</t>
+  </si>
+  <si>
+    <t>When you click on the "More" button, the field for entering the number of guests of the "Tourist" type of visa does not open.</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Tourist".
+2. Select the multiplicity "Single".
+3. Click the "More" button.
+4. Enter the number of guests - 19.
+5. Choose readiness - 15 minutes."</t>
+  </si>
+  <si>
+    <t>The "More" button opens fields for entering the number of guests.</t>
+  </si>
+  <si>
+    <t>The button "More" does not open the input field.</t>
+  </si>
+  <si>
+    <t>The number of guests is not selected the first time - type 2 visa "Tourist" ..</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Tourist".
+2. Select the multiplicity "Double".
+3. Select the number of guests - 2.
+4. Choose readiness - 15 minutes."</t>
+  </si>
+  <si>
+    <t>The button for selecting the number of guests 2, allows you to select a guest from the first time.</t>
+  </si>
+  <si>
+    <t>the button selects the number of guests - 2 from the second time.</t>
+  </si>
+  <si>
+    <t>The "Guest data" block is not displayed on the page.</t>
+  </si>
+  <si>
+    <t>The "Guest data" block is displayed on the page.</t>
+  </si>
+  <si>
+    <t>There is no block on the page.</t>
+  </si>
+  <si>
+    <t>An error is not displayed when entering a negative date in the "Trip data" block.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field 06/02/2022 - 06/01/2022</t>
+  </si>
+  <si>
+    <t>If the number of days is negative, an error will appear in the "Trip data" block.</t>
+  </si>
+  <si>
+    <t>When entering negative values in the "Trip data" block, the error does not appear.</t>
+  </si>
+  <si>
+    <t>An error is not displayed when entering 0 days in the "Trip data" block.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field 06/01/2022 - 06/01/2022</t>
+  </si>
+  <si>
+    <t>If the number of days is "0", an error will appear in the "Trip data" block.</t>
+  </si>
+  <si>
+    <t>When you enter 0 days in the "Trip data" block, the error does not appear.</t>
+  </si>
+  <si>
+    <t>An error is not displayed when entering 31 days in the "Trip data" block.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field 06/01/2022 - 07/01/2022</t>
+  </si>
+  <si>
+    <t>When you enter 31 days in the "Trip data" block, the error does not appear.</t>
+  </si>
+  <si>
+    <t>An error is not displayed when entering the DDMMYYYY format in the "Trip data" block.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field 01062022 - 15062022</t>
+  </si>
+  <si>
+    <t>An error will be thrown due to the date format.</t>
+  </si>
+  <si>
+    <t>When entering the date format DDMMYYYY in the "Trip data" block, the error does not appear.</t>
+  </si>
+  <si>
+    <t>When entering the Latin alphabet in the "Trip data" block, no error is displayed.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field "ghtk" - "ghtr"</t>
+  </si>
+  <si>
+    <t>An error will be displayed.</t>
+  </si>
+  <si>
+    <t>The error is not displayed when entering the data block in Latin.</t>
+  </si>
+  <si>
+    <t>When entering Cyrillic in the "Trip data" block, no error is displayed.</t>
+  </si>
+  <si>
+    <t>1.Enter in the date field "понлд - прнлл"</t>
+  </si>
+  <si>
+    <t>The error is not displayed when entering the data block in Cyrillic.</t>
+  </si>
+  <si>
+    <t>No error is displayed when entering uppercase and lowercase letters in the "Trip Details" block.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field "zONpr - rplnNrgh"</t>
+  </si>
+  <si>
+    <t>The error is not displayed when entering the data block in uppercase and lowercase letters.</t>
+  </si>
+  <si>
+    <t>When entering special characters in the "Trip data" block, no error is displayed.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field "!1.06.2022" - "0!.06.2022"</t>
+  </si>
+  <si>
+    <t>The error is not displayed when entering special characters in the block.</t>
+  </si>
+  <si>
+    <t>When entering a postfix and prefix space in the "Trip data" block, no error is displayed.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field "06/01/2022 - 06/02/2022"</t>
+  </si>
+  <si>
+    <t>The error is not displayed when entering a postfix and prefix space into a block.</t>
+  </si>
+  <si>
+    <t>When entering a non-existent month in the "Trip data" block, no error is displayed.</t>
+  </si>
+  <si>
+    <t>1. Enter in the date field - 13/01/2022 - 06/02/2022</t>
+  </si>
+  <si>
+    <t>The error is not displayed when you enter a month that does not exist in the calendar into the block.</t>
+  </si>
+  <si>
+    <t>When you click on the "Get a visa invitation" button, the required fields are not highlighted in red.</t>
+  </si>
+  <si>
+    <t>1. Leave the required fields blank.
+2. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>The required field will be highlighted in red.</t>
+  </si>
+  <si>
+    <t>The error "Please fill in this field" is displayed.</t>
+  </si>
+  <si>
+    <t>When filling in the "City" field only with numbers, there is no error.</t>
+  </si>
+  <si>
+    <t>1. Enter the numbers in the field - 1119880736.
+2. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>No error message.</t>
+  </si>
+  <si>
+    <t>When filling in the "City" field only with special characters, there is no error.</t>
+  </si>
+  <si>
+    <t>1. Enter special characters in the field - !^&amp;*()%$#?/ - +=_-
+2. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>When filling in the "City" field with the addition of prefix and postfix spaces, there is no error.</t>
+  </si>
+  <si>
+    <t>1. Enter in the field - Moscow.
+2. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>1. Enter special characters in the field - !^&amp;*()%$#?/ - +=_-"
+2. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>When filling in the field "Hotels / private apartment and full address" with the addition of prefix and postfix spaces, there is no error.</t>
+  </si>
+  <si>
+    <t>1. Enter numbers in the field - Moscow.
+2. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>When filling in the local part of the email more than 65 characters, no error appears.</t>
+  </si>
+  <si>
+    <t>1. Click on the "Your Email" field.
+2. Enter "slqwtyhhnttsttvmdgorklitgylbvoouwekzdfhjuknsolkinhyb0egheffgIdwyxz@mail.ru"
+3. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>Error message.</t>
+  </si>
+  <si>
+    <t>When entering only numbers in the email field in the domain part, the error does not appear.</t>
+  </si>
+  <si>
+    <t>1. Click on the "Your Email" field.
+2. Enter "13456@112134".
+3. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>When you enter 257 characters in the email field, there is no error.</t>
+  </si>
+  <si>
+    <t>1. Click on the "Your Email" field.
+2. Enter "ROZzidFo5kkkFIEkUqXW6yKbFzoShO7bPl35PdvU8kYM7ZA7hbPoAMucg0PkopIDadvt50xIYTBDgpKY8gBXAtmIrx7xw65VMvl9eeрp7zEk4ERcItlXVt9xxAsfzCSHL9DiOcXdCDXLuQxoWLpWs50YodRAZOfKh9j8UXsbsBPtOYxxEZOJGV9NflL6FL2yQvvBPXLOaSGuQZ7mXsYfnLJ8MIiGzuaHBAe5f60UGHs8rBsFZ0r8XSCQb0Gwdhwb6o2DpVj8tm2FLD5kwf6gcVvpSoNMX38S9UTC9NvttdweqALRxyfl2JZgP@mail.ru".</t>
+  </si>
+  <si>
+    <t>When entering prefix and postfix spaces in the email field, no error appears.</t>
+  </si>
+  <si>
+    <t>1. Click on the "Your Email" field.
+2. Enter "alex@mail.ru".
+3. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>There is no block "Other delivery methods" on the page.</t>
+  </si>
+  <si>
+    <t>The block is on the page, with text fields for input.</t>
+  </si>
+  <si>
+    <t>The block is not on the page.</t>
+  </si>
+  <si>
+    <t>The user agreement does not display information.</t>
+  </si>
+  <si>
+    <t>1. Click on the link "User Agreement".</t>
+  </si>
+  <si>
+    <t>Clicking on the User Agreement displays information.</t>
+  </si>
+  <si>
+    <t>Information is absent.</t>
+  </si>
+  <si>
+    <t>If the user agreement checkbox is not selected, no error message appears.</t>
+  </si>
+  <si>
+    <t>1. In the checkbox "I agree with the terms of the user agreement" do not click.
+2. Click on the button "Get a visa invitation"</t>
+  </si>
+  <si>
+    <t>An error message "Please read this user agreement" will be displayed in the checkbox "I agree to the terms of the user agreement".</t>
+  </si>
+  <si>
+    <t>The error does not appear if the user does not click the user agreement in the checkbox.</t>
+  </si>
+  <si>
+    <t>The number of guests is not selected the first time - 1 type of visa "Business".</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Business".
+2. Select the multiplicity - single.
+3. Select the number of guests - 1.
+4. Choose readiness - 14-22 days.
+5. Choose the time of stay - 30 days."</t>
+  </si>
+  <si>
+    <t>The price for a visa invitation type "Business" visa is displayed.</t>
+  </si>
+  <si>
+    <t>the button selects the number of guests - 1 from the second time.</t>
+  </si>
+  <si>
+    <t>When you click on the "More" button, the field for entering the number of guests of the "Business" visa type does not open.</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Business".
+2. Select the multiplicity - single.
+4. Click on the "more" button.
+3. Enter the number of guests - 18.
+4. Choose readiness - 11-13 days.
+5. Choose the time of stay - 90 days."</t>
+  </si>
+  <si>
+    <t>The number of guests is not selected the first time - 3, the type of visa is "Business"..</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Business".
+2. Select the multiplicity - single.
+3. Select the number of guests - 3.
+4. Choose readiness - 7-10 days.
+5. Choose the time of stay - 90 days."</t>
+  </si>
+  <si>
+    <t>The button for selecting the number of guests 3, allows you to select a guest from the first time.</t>
+  </si>
+  <si>
+    <t>the button selects the number of guests - 3 from the second time.</t>
+  </si>
+  <si>
+    <t>The number of guests is not selected the first time - type 2 visa "Business".</t>
+  </si>
+  <si>
+    <t>1. Select the type of visa "Business".
+2. Select the multiplicity - single.
+3. Select the number of guests - 2.
+4. Choose readiness - 11-13 days.
+5. Choose the time of stay - 30 days."</t>
+  </si>
+  <si>
+    <t>The "+Guest" button does not work, an additional block with guest data is not displayed.</t>
+  </si>
+  <si>
+    <t>1. Click on the "+Guest" button.</t>
+  </si>
+  <si>
+    <t>An additional block with information about the guest appears.</t>
+  </si>
+  <si>
+    <t>The button does not work, the additional block is not displayed.</t>
+  </si>
+  <si>
+    <t>The "+City" button does not work, an additional block with the place of travel does not appear.</t>
+  </si>
+  <si>
+    <t>1. Press the "+City" button.</t>
+  </si>
+  <si>
+    <t>An additional block with the city of the trip appears.</t>
+  </si>
+  <si>
+    <t>In the multiplicity block, when selecting elements, the text is not displayed in full.</t>
+  </si>
+  <si>
+    <t>1. Click on the dropdown element in the multiplicity block.
+2. Select the multiplicity."</t>
+  </si>
+  <si>
+    <t>The text fits entirely on a line.</t>
+  </si>
+  <si>
+    <t>The text is displayed in the block is not all.</t>
+  </si>
+  <si>
+    <t>User on page: https://bronevik-broken-invitation-form-php8.stg.bronevik.space/ru/info/russian-visa-invitation/</t>
+  </si>
+  <si>
+    <t>Browser- Google Chrome Version 101.0.4951.64</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,9 +1130,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +1149,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,14 +1433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -1066,7 +1450,7 @@
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>112</v>
       </c>
@@ -1097,11 +1481,11 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" s="10" customFormat="1" ht="25.5">
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="15"/>
@@ -1128,17 +1512,17 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="10" customFormat="1" ht="15.75">
+    <row r="3" spans="1:25" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="8"/>
@@ -1159,12 +1543,12 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="26" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1186,11 +1570,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="102">
-      <c r="A6" s="27">
+    <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1209,11 +1593,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="114.75">
-      <c r="A7" s="27">
+    <row r="7" spans="1:25" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1232,11 +1616,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="89.25">
-      <c r="A8" s="27">
+    <row r="8" spans="1:25" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1255,11 +1639,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="76.5">
-      <c r="A9" s="27">
+    <row r="9" spans="1:25" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1278,11 +1662,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="25.5">
-      <c r="A10" s="27">
+    <row r="10" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1299,11 +1683,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="63.75">
-      <c r="A11" s="27">
+    <row r="11" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>6</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1322,11 +1706,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="51">
-      <c r="A12" s="27">
+    <row r="12" spans="1:25" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>7</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1345,11 +1729,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="51">
-      <c r="A13" s="27">
+    <row r="13" spans="1:25" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>8</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1368,11 +1752,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="63.75">
-      <c r="A14" s="27">
+    <row r="14" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1391,11 +1775,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="51">
-      <c r="A15" s="27">
+    <row r="15" spans="1:25" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>10</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1414,11 +1798,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="51">
-      <c r="A16" s="27">
+    <row r="16" spans="1:25" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>11</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1437,11 +1821,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="63.75">
-      <c r="A17" s="27">
+    <row r="17" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1460,11 +1844,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="51">
-      <c r="A18" s="27">
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>13</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1483,11 +1867,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="63.75">
-      <c r="A19" s="27">
+    <row r="19" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1506,11 +1890,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="63.75">
-      <c r="A20" s="27">
+    <row r="20" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>15</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1529,11 +1913,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51">
-      <c r="A21" s="27">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>16</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1552,11 +1936,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51">
-      <c r="A22" s="27">
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>17</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1575,11 +1959,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="51">
-      <c r="A23" s="27">
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>18</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1598,11 +1982,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="38.25">
-      <c r="A24" s="27">
+    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>19</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1621,11 +2005,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="51">
-      <c r="A25" s="27">
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>20</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1644,11 +2028,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="51">
-      <c r="A26" s="27">
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>21</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1667,11 +2051,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51">
-      <c r="A27" s="27">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1690,11 +2074,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="89.25">
-      <c r="A28" s="27">
+    <row r="28" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
         <v>23</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1713,11 +2097,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51">
-      <c r="A29" s="27">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
         <v>24</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1736,11 +2120,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="178.5">
-      <c r="A30" s="27">
+    <row r="30" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
         <v>25</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1759,11 +2143,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="51">
-      <c r="A31" s="27">
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
         <v>26</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1782,11 +2166,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="38.25">
-      <c r="A32" s="27">
+    <row r="32" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <v>27</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1803,11 +2187,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="51">
-      <c r="A33" s="27">
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>28</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1826,11 +2210,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="102">
-      <c r="A34" s="27">
+    <row r="34" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>29</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1849,11 +2233,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="76.5">
-      <c r="A35" s="27">
+    <row r="35" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
         <v>30</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1872,11 +2256,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="89.25">
-      <c r="A36" s="27">
+    <row r="36" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
         <v>31</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1895,11 +2279,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="76.5">
-      <c r="A37" s="27">
+    <row r="37" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
         <v>32</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1918,11 +2302,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="89.25">
-      <c r="A38" s="27">
+    <row r="38" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
         <v>33</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1941,11 +2325,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="38.25">
-      <c r="A39" s="27">
+    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
         <v>34</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1964,11 +2348,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="38.25">
-      <c r="A40" s="27">
+    <row r="40" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
         <v>35</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1987,11 +2371,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="38.25">
-      <c r="A41" s="27">
+    <row r="41" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>36</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2008,6 +2392,911 @@
       </c>
       <c r="G41" s="6" t="s">
         <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDAD7B-0D6B-4914-805A-C24F7DC8E34C}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>6</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>7</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>10</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>12</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>13</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>14</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>15</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>16</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>17</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>18</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>19</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>20</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="204" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="204" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>22</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>23</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>24</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>25</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>26</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>27</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>28</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="204" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>29</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="306" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>30</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="357" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>31</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="306" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>32</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="306" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>33</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>34</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>35</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>36</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
